--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大三上\数据科学\house-prices-advanced-regression-techniques\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A20E667-EDAC-4EEC-A101-2B309B24CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE378C0-FB59-481A-891B-00AAB9E9078E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="299">
   <si>
     <t>Id</t>
   </si>
@@ -263,9 +263,6 @@
     <t>SaleCondition</t>
   </si>
   <si>
-    <t>示例</t>
-  </si>
-  <si>
     <t>1-STORY 1946 &amp; NEWER ALL STYLES</t>
   </si>
   <si>
@@ -636,9 +633,6 @@
   </si>
   <si>
     <t>No Pool</t>
-  </si>
-  <si>
-    <t>Minimum Wood/Wire</t>
   </si>
   <si>
     <t>Tennis Court</t>
@@ -928,6 +922,10 @@
   </si>
   <si>
     <t>Typical/Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例勿改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -946,6 +944,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1291,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CB2"/>
+  <dimension ref="A1:CB3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="CA2" sqref="CA2"/>
+      <selection activeCell="BZ11" sqref="BZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1545,14 +1544,14 @@
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
       </c>
       <c r="D2">
         <v>70</v>
@@ -1561,46 +1560,46 @@
         <v>11920</v>
       </c>
       <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
         <v>83</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>84</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>85</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>86</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>87</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>88</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>89</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>90</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" t="s">
         <v>91</v>
       </c>
-      <c r="O2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>93</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>94</v>
-      </c>
-      <c r="S2" t="s">
-        <v>95</v>
       </c>
       <c r="T2">
         <v>2004</v>
@@ -1609,49 +1608,49 @@
         <v>2005</v>
       </c>
       <c r="V2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" t="s">
         <v>96</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>97</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" t="s">
         <v>98</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>99</v>
       </c>
       <c r="AA2">
         <v>112</v>
       </c>
       <c r="AB2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC2" t="s">
         <v>100</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>101</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG2" t="s">
         <v>103</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>104</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>105</v>
       </c>
       <c r="AI2">
         <v>244</v>
       </c>
       <c r="AJ2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK2">
         <v>859</v>
@@ -1663,16 +1662,16 @@
         <v>1208</v>
       </c>
       <c r="AN2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO2" t="s">
         <v>106</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>107</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>108</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>109</v>
       </c>
       <c r="AR2">
         <v>1012</v>
@@ -1705,28 +1704,28 @@
         <v>1</v>
       </c>
       <c r="BB2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC2">
         <v>5</v>
       </c>
       <c r="BD2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BE2">
         <v>1</v>
       </c>
       <c r="BF2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG2" t="s">
         <v>111</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>112</v>
       </c>
       <c r="BH2">
         <v>2000</v>
       </c>
       <c r="BI2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BJ2">
         <v>1</v>
@@ -1735,13 +1734,13 @@
         <v>400</v>
       </c>
       <c r="BL2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BM2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN2" t="s">
         <v>114</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>115</v>
       </c>
       <c r="BO2">
         <v>157</v>
@@ -1762,13 +1761,13 @@
         <v>0</v>
       </c>
       <c r="BU2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BV2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW2" t="s">
         <v>116</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>117</v>
       </c>
       <c r="BX2">
         <v>0</v>
@@ -1780,10 +1779,252 @@
         <v>2010</v>
       </c>
       <c r="CA2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CB2" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>11920</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3">
+        <v>2004</v>
+      </c>
+      <c r="U3">
+        <v>2005</v>
+      </c>
+      <c r="V3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA3">
+        <v>112</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR3">
+        <v>1012</v>
+      </c>
+      <c r="AS3">
+        <v>823</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>1074</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>4</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC3">
+        <v>5</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>239</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BH3">
+        <v>2000</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>400</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BO3">
+        <v>157</v>
+      </c>
+      <c r="BP3">
+        <v>84</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>4</v>
+      </c>
+      <c r="BZ3">
+        <v>2010</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1814,7 +2055,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$BI$2:$BI$5</xm:f>
           </x14:formula1>
-          <xm:sqref>BI2 BI3:BI10</xm:sqref>
+          <xm:sqref>BI2:BI10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
@@ -1978,113 +2219,113 @@
           </x14:formula1>
           <xm:sqref>AD2:AD10</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000020000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$AH$2:$AH$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>AH2:AH10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000021000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$AF$2:$AF$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>AF2:AF10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000022000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$AO$2:$AO$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>AO2:AO10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000023000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$AP$2:$AP$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>AP2:AP10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000024000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$BN$2:$BN$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>BN2:BN10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000025000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$BB$2:$BB$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>BB2:BB10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000026000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$BC$2:$BC$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>BC2:BC10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000027000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$BD$2:$BD$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>BD2:BD10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000028000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$BY$2:$BY$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>BY2:BY10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000029000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$BF$2:$BF$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BF2:BF10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002A000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$BG$2:$BG$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>BG2:BG10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002B000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$BJ$2:$BJ$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>BJ2:BJ10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002C000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$BL$2:$BL$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BL2:BL10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002D000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$BU$2:$BU$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>BU2:BU10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002E000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$BW$2:$BW$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>BW2:BW10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002F000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$CA$2:$CA$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>CA2:CA10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000030000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$CB$2:$CB$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>CB2:CB10</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00001F000000}">
           <x14:formula1>
-            <xm:f>Sheet2!$BV$2:$BV$6</xm:f>
+            <xm:f>Sheet2!$BV$2:$BV$5</xm:f>
           </x14:formula1>
           <xm:sqref>BV2:BV10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000020000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$AH$2:$AH$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>AH2:AH10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000021000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$AF$2:$AF$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>AF2:AF10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000022000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$AO$2:$AO$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>AO2:AO10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000023000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$AP$2:$AP$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>AP2:AP10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000024000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$BN$2:$BN$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>BN2:BN10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000025000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$BB$2:$BB$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>BB2:BB10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000026000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$BC$2:$BC$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>BC2:BC10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000027000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$BD$2:$BD$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>BD2:BD10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000028000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$BY$2:$BY$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>BY2:BY10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000029000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$BF$2:$BF$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>BF2:BF10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002A000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$BG$2:$BG$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>BG2:BG10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002B000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$BJ$2:$BJ$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>BJ2:BJ10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002C000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$BL$2:$BL$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>BL2:BL10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002D000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$BU$2:$BU$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>BU2:BU10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002E000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$BW$2:$BW$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>BW2:BW10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00002F000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$CA$2:$CA$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>CA2:CA10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000030000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$CB$2:$CB$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>CB2:CB10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2097,7 +2338,7 @@
   <dimension ref="A1:CB26"/>
   <sheetViews>
     <sheetView topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="CA2" sqref="CA2"/>
+      <selection activeCell="BW12" sqref="BW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2386,840 +2627,834 @@
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>82</v>
       </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
         <v>85</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>86</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>87</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>88</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>89</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>90</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" t="s">
         <v>91</v>
       </c>
-      <c r="O2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>93</v>
       </c>
-      <c r="R2" t="s">
-        <v>94</v>
-      </c>
       <c r="S2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" t="s">
         <v>96</v>
       </c>
-      <c r="W2" t="s">
-        <v>97</v>
-      </c>
       <c r="X2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" t="s">
         <v>119</v>
       </c>
-      <c r="Y2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE2" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AF2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP2" t="s">
         <v>121</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB2" t="s">
         <v>106</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>107</v>
       </c>
       <c r="BC2">
         <v>1</v>
       </c>
       <c r="BD2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF2" t="s">
         <v>124</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>125</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>126</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>127</v>
       </c>
       <c r="BJ2">
         <v>0</v>
       </c>
       <c r="BL2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BM2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BN2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW2" t="s">
         <v>128</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>129</v>
       </c>
       <c r="BY2">
         <v>1</v>
       </c>
       <c r="CA2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CB2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
         <v>131</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
         <v>132</v>
       </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>133</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>134</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>135</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>136</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>137</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>138</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P3" t="s">
         <v>139</v>
       </c>
-      <c r="O3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>140</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" t="s">
         <v>141</v>
       </c>
-      <c r="R3" t="s">
+      <c r="W3" t="s">
+        <v>142</v>
+      </c>
+      <c r="X3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP3" t="s">
         <v>107</v>
       </c>
-      <c r="S3" t="s">
-        <v>95</v>
-      </c>
-      <c r="V3" t="s">
-        <v>142</v>
-      </c>
-      <c r="W3" t="s">
-        <v>143</v>
-      </c>
-      <c r="X3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN3" t="s">
+      <c r="AQ3" t="s">
         <v>148</v>
       </c>
-      <c r="AO3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>149</v>
-      </c>
       <c r="BB3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC3">
         <v>2</v>
       </c>
       <c r="BD3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BF3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG3" t="s">
         <v>111</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BI3" t="s">
         <v>112</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>113</v>
       </c>
       <c r="BJ3">
         <v>1</v>
       </c>
       <c r="BL3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BM3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BN3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BV3" t="s">
         <v>151</v>
       </c>
-      <c r="BU3" t="s">
-        <v>101</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>152</v>
-      </c>
       <c r="BW3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BY3">
         <v>2</v>
       </c>
       <c r="CA3" t="s">
+        <v>152</v>
+      </c>
+      <c r="CB3" t="s">
         <v>153</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
         <v>155</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>156</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>157</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>158</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>159</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>160</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>161</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>162</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" t="s">
         <v>163</v>
       </c>
-      <c r="O4" t="s">
-        <v>163</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>164</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" t="s">
+        <v>100</v>
+      </c>
+      <c r="V4" t="s">
         <v>165</v>
       </c>
-      <c r="R4" t="s">
-        <v>95</v>
-      </c>
-      <c r="S4" t="s">
-        <v>101</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>166</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB4" t="s">
         <v>167</v>
       </c>
-      <c r="X4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD4" t="s">
         <v>168</v>
       </c>
-      <c r="AC4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>169</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG4" t="s">
         <v>170</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>171</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AJ4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN4" t="s">
         <v>172</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>173</v>
       </c>
-      <c r="AO4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>174</v>
-      </c>
       <c r="BB4" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BC4">
         <v>3</v>
       </c>
       <c r="BD4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF4" t="s">
         <v>175</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>176</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BI4" t="s">
         <v>177</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>178</v>
       </c>
       <c r="BJ4">
         <v>2</v>
       </c>
       <c r="BL4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN4" t="s">
         <v>114</v>
       </c>
-      <c r="BM4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>115</v>
-      </c>
       <c r="BU4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BV4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW4" t="s">
         <v>179</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>180</v>
       </c>
       <c r="BY4">
         <v>3</v>
       </c>
       <c r="CA4" t="s">
+        <v>180</v>
+      </c>
+      <c r="CB4" t="s">
         <v>181</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
         <v>183</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" t="s">
         <v>184</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>185</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>186</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>187</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>188</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
+        <v>188</v>
+      </c>
+      <c r="P5" t="s">
         <v>189</v>
       </c>
-      <c r="O5" t="s">
-        <v>189</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>190</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" t="s">
         <v>191</v>
       </c>
-      <c r="R5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>192</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>193</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z5" t="s">
         <v>194</v>
       </c>
-      <c r="X5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD5" t="s">
         <v>195</v>
       </c>
-      <c r="AB5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>196</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH5" t="s">
         <v>197</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AH5" t="s">
+      <c r="AJ5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN5" t="s">
         <v>198</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>199</v>
       </c>
-      <c r="AO5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>200</v>
-      </c>
       <c r="BB5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BC5">
         <v>4</v>
       </c>
       <c r="BD5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BF5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG5" t="s">
         <v>201</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>202</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>203</v>
       </c>
       <c r="BJ5">
         <v>3</v>
       </c>
       <c r="BL5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BM5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU5" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW5" t="s">
         <v>204</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>205</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>206</v>
       </c>
       <c r="BY5">
         <v>4</v>
       </c>
       <c r="CA5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="CB5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6" t="s">
         <v>209</v>
       </c>
-      <c r="C6" t="s">
+      <c r="M6" t="s">
         <v>210</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" t="s">
         <v>211</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
+        <v>211</v>
+      </c>
+      <c r="P6" t="s">
         <v>212</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>213</v>
       </c>
-      <c r="O6" t="s">
-        <v>213</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
+        <v>191</v>
+      </c>
+      <c r="S6" t="s">
         <v>214</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="V6" t="s">
         <v>215</v>
       </c>
-      <c r="R6" t="s">
-        <v>192</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="W6" t="s">
         <v>216</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC6" t="s">
         <v>217</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AD6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE6" t="s">
         <v>218</v>
       </c>
-      <c r="X6" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AF6" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH6" t="s">
         <v>219</v>
       </c>
-      <c r="AD6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AJ6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN6" t="s">
         <v>220</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>222</v>
-      </c>
       <c r="AO6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AQ6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BC6">
         <v>5</v>
       </c>
       <c r="BD6" t="s">
+        <v>221</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>222</v>
+      </c>
+      <c r="BG6" t="s">
         <v>223</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>224</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>225</v>
       </c>
       <c r="BJ6">
         <v>4</v>
       </c>
       <c r="BL6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BM6" t="s">
-        <v>219</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="BW6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BY6">
         <v>5</v>
       </c>
       <c r="CA6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CB6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M7" t="s">
+        <v>228</v>
+      </c>
+      <c r="N7" t="s">
         <v>229</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q7" t="s">
         <v>230</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R7" t="s">
+        <v>214</v>
+      </c>
+      <c r="S7" t="s">
         <v>231</v>
       </c>
-      <c r="O7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="V7" t="s">
         <v>232</v>
       </c>
-      <c r="R7" t="s">
-        <v>216</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="W7" t="s">
         <v>233</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>234</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD7" t="s">
         <v>235</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AH7" t="s">
         <v>236</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AJ7" t="s">
         <v>236</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AN7" t="s">
         <v>237</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>239</v>
       </c>
       <c r="BC7">
         <v>6</v>
       </c>
       <c r="BD7" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>239</v>
+      </c>
+      <c r="BG7" t="s">
         <v>240</v>
       </c>
-      <c r="BF7" t="s">
-        <v>241</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>242</v>
-      </c>
       <c r="BL7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BM7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BY7">
         <v>6</v>
       </c>
       <c r="CA7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="CB7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="M8" t="s">
+        <v>244</v>
+      </c>
+      <c r="N8" t="s">
         <v>245</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="N8" t="s">
+      <c r="R8" t="s">
+        <v>231</v>
+      </c>
+      <c r="S8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W8" t="s">
         <v>247</v>
       </c>
-      <c r="O8" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="X8" t="s">
         <v>248</v>
       </c>
-      <c r="R8" t="s">
-        <v>233</v>
-      </c>
-      <c r="S8" t="s">
-        <v>100</v>
-      </c>
-      <c r="W8" t="s">
-        <v>249</v>
-      </c>
-      <c r="X8" t="s">
-        <v>250</v>
-      </c>
       <c r="Y8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AH8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AJ8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="BC8">
         <v>7</v>
       </c>
       <c r="BD8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="BG8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BY8">
         <v>7</v>
       </c>
       <c r="CA8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>251</v>
+      </c>
+      <c r="M9" t="s">
+        <v>252</v>
+      </c>
+      <c r="N9" t="s">
         <v>253</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>254</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
         <v>255</v>
       </c>
-      <c r="O9" t="s">
+      <c r="R9" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" t="s">
+        <v>217</v>
+      </c>
+      <c r="W9" t="s">
         <v>256</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="X9" t="s">
         <v>257</v>
       </c>
-      <c r="R9" t="s">
-        <v>100</v>
-      </c>
-      <c r="S9" t="s">
-        <v>219</v>
-      </c>
-      <c r="W9" t="s">
-        <v>258</v>
-      </c>
-      <c r="X9" t="s">
-        <v>259</v>
-      </c>
       <c r="Y9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="BC9">
         <v>8</v>
@@ -3228,30 +3463,30 @@
         <v>8</v>
       </c>
       <c r="CA9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>259</v>
+      </c>
+      <c r="M10" t="s">
+        <v>260</v>
+      </c>
+      <c r="N10" t="s">
+        <v>254</v>
+      </c>
+      <c r="R10" t="s">
+        <v>217</v>
+      </c>
+      <c r="S10" t="s">
         <v>261</v>
       </c>
-      <c r="M10" t="s">
+      <c r="X10" t="s">
         <v>262</v>
       </c>
-      <c r="N10" t="s">
-        <v>256</v>
-      </c>
-      <c r="R10" t="s">
-        <v>219</v>
-      </c>
-      <c r="S10" t="s">
-        <v>263</v>
-      </c>
-      <c r="X10" t="s">
-        <v>264</v>
-      </c>
       <c r="Y10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BC10">
         <v>9</v>
@@ -3260,24 +3495,24 @@
         <v>9</v>
       </c>
       <c r="CA10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>263</v>
+      </c>
+      <c r="M11" t="s">
+        <v>264</v>
+      </c>
+      <c r="R11" t="s">
+        <v>261</v>
+      </c>
+      <c r="X11" t="s">
         <v>265</v>
       </c>
-      <c r="M11" t="s">
-        <v>266</v>
-      </c>
-      <c r="R11" t="s">
-        <v>263</v>
-      </c>
-      <c r="X11" t="s">
-        <v>267</v>
-      </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BC11">
         <v>10</v>
@@ -3288,16 +3523,16 @@
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="X12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BC12">
         <v>11</v>
@@ -3308,16 +3543,16 @@
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="M13" t="s">
+        <v>269</v>
+      </c>
+      <c r="X13" t="s">
         <v>270</v>
       </c>
-      <c r="M13" t="s">
-        <v>271</v>
-      </c>
-      <c r="X13" t="s">
-        <v>272</v>
-      </c>
       <c r="Y13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC13">
         <v>12</v>
@@ -3328,16 +3563,16 @@
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>271</v>
+      </c>
+      <c r="M14" t="s">
+        <v>272</v>
+      </c>
+      <c r="X14" t="s">
         <v>273</v>
       </c>
-      <c r="M14" t="s">
-        <v>274</v>
-      </c>
-      <c r="X14" t="s">
-        <v>275</v>
-      </c>
       <c r="Y14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BC14">
         <v>13</v>
@@ -3345,16 +3580,16 @@
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>274</v>
+      </c>
+      <c r="M15" t="s">
+        <v>275</v>
+      </c>
+      <c r="X15" t="s">
         <v>276</v>
       </c>
-      <c r="M15" t="s">
-        <v>277</v>
-      </c>
-      <c r="X15" t="s">
-        <v>278</v>
-      </c>
       <c r="Y15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BC15">
         <v>14</v>
@@ -3362,16 +3597,16 @@
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="X16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Y16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BC16">
         <v>15</v>
@@ -3379,58 +3614,58 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Y17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="M21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="M24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="M25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="M26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
